--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/MARYLAND_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/MARYLAND_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D597"/>
+  <dimension ref="A1:D591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C4">
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C8">
@@ -501,7 +501,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C10">
@@ -545,7 +545,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13">
@@ -589,7 +589,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C16">
@@ -628,7 +628,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C19">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C41">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C49">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C69">
@@ -1361,7 +1361,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C75">
@@ -1374,7 +1374,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1392,7 +1392,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C77">
@@ -1561,7 +1561,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C90">
@@ -1574,7 +1574,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1618,7 +1618,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C94">
@@ -1753,7 +1753,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C104">
@@ -1766,12 +1766,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C105">
@@ -1784,7 +1784,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C106">
@@ -1875,7 +1875,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C113">
@@ -2044,7 +2044,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C126">
@@ -2083,7 +2083,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C129">
@@ -2148,7 +2148,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C134">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C137">
@@ -2265,7 +2265,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C143">
@@ -2296,7 +2296,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C145">
@@ -2348,7 +2348,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C149">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C160">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C161">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C162">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C164">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C167">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C168">
@@ -2639,7 +2639,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C171">
@@ -2665,7 +2665,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C173">
@@ -2691,7 +2691,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C175">
@@ -2704,7 +2704,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C176">
@@ -2743,7 +2743,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C179">
@@ -2756,7 +2756,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C180">
@@ -2769,7 +2769,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C181">
@@ -2808,7 +2808,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C184">
@@ -2821,7 +2821,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C185">
@@ -2860,7 +2860,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C188">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C189">
@@ -2912,7 +2912,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C192">
@@ -2925,7 +2925,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C193">
@@ -3081,7 +3081,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C205">
@@ -3094,7 +3094,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C206">
@@ -3133,7 +3133,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C209">
@@ -3146,7 +3146,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C210">
@@ -3211,7 +3211,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C215">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C216">
@@ -3281,7 +3281,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C220">
@@ -3294,7 +3294,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C221">
@@ -3333,7 +3333,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C224">
@@ -3359,7 +3359,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C226">
@@ -3398,7 +3398,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C229">
@@ -3450,7 +3450,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C233">
@@ -3463,7 +3463,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C234">
@@ -3489,7 +3489,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C236">
@@ -3541,7 +3541,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C240">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C243">
@@ -3606,7 +3606,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C245">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C247">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C248">
@@ -3663,7 +3663,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C249">
@@ -3702,7 +3702,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C252">
@@ -3715,7 +3715,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C253">
@@ -3741,7 +3741,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C255">
@@ -3767,7 +3767,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C257">
@@ -3780,7 +3780,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C258">
@@ -3832,7 +3832,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C262">
@@ -3845,7 +3845,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4149,7 +4149,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C286">
@@ -4271,7 +4271,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C295">
@@ -4284,7 +4284,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C296">
@@ -4315,7 +4315,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C298">
@@ -4341,7 +4341,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C300">
@@ -4385,7 +4385,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C303">
@@ -4442,7 +4442,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C307">
@@ -4468,7 +4468,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C309">
@@ -4481,7 +4481,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C310">
@@ -4494,7 +4494,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C311">
@@ -4507,7 +4507,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C312">
@@ -4520,7 +4520,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C313">
@@ -4546,7 +4546,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C315">
@@ -4572,7 +4572,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C317">
@@ -4585,7 +4585,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C318">
@@ -4598,7 +4598,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C319">
@@ -4611,7 +4611,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C320">
@@ -4624,7 +4624,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C321">
@@ -4767,7 +4767,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C332">
@@ -4793,7 +4793,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C334">
@@ -5391,7 +5391,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C380">
@@ -5404,7 +5404,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C381">
@@ -5417,7 +5417,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C382">
@@ -5430,7 +5430,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C383">
@@ -5443,7 +5443,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C384">
@@ -5526,7 +5526,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C390">
@@ -5552,7 +5552,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C392">
@@ -5630,7 +5630,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C398">
@@ -5695,7 +5695,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C403">
@@ -5851,7 +5851,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C415">
@@ -6059,7 +6059,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C431">
@@ -6163,7 +6163,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C439">
@@ -6189,7 +6189,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C441">
@@ -6202,7 +6202,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C442">
@@ -6241,7 +6241,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C445">
@@ -6462,7 +6462,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C462">
@@ -6519,7 +6519,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C466">
@@ -6545,7 +6545,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C468">
@@ -6589,7 +6589,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C471">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C472">
@@ -6659,7 +6659,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C476">
@@ -6724,7 +6724,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C481">
@@ -6737,7 +6737,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C482">
@@ -6763,7 +6763,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C484">
@@ -6789,7 +6789,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C486">
@@ -6859,7 +6859,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C491">
@@ -6929,7 +6929,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C496">
@@ -6994,7 +6994,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C501">
@@ -7142,7 +7142,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C512">
@@ -7199,7 +7199,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C516">
@@ -7225,7 +7225,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C518">
@@ -7316,7 +7316,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C525">
@@ -7329,7 +7329,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -7373,7 +7373,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C529">
@@ -7477,7 +7477,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C537">
@@ -7490,7 +7490,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C538">
@@ -7568,7 +7568,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C544">
@@ -7581,7 +7581,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C545">
@@ -7594,7 +7594,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C546">
@@ -7607,7 +7607,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C547">
@@ -7685,7 +7685,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C553">
@@ -7737,7 +7737,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C557">
@@ -8023,7 +8023,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C579">
@@ -8067,7 +8067,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C582">
@@ -8111,7 +8111,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C585">
@@ -8176,7 +8176,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C590">
@@ -8189,7 +8189,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C591">
@@ -8197,41 +8197,6 @@
       </c>
       <c r="D591">
         <v>1</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/MARYLAND_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/MARYLAND_2024.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Acapetahua</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Bejucal De Ocampo</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Chilón</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Huixtán</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Jiquipilas</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Jitotol</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>La Independencia</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Marqués De Comillas</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Oxchuc</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Pantelhó</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>San Juan Cancuc</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Suchiapa</t>
@@ -1068,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -1081,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -1094,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tapalapa</t>
@@ -1107,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -1120,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -1133,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1146,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -1159,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -1172,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -1185,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tzimol</t>
@@ -1198,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -1211,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1224,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -1237,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -1250,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -1263,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Yajalón</t>
@@ -1276,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1307,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1320,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1333,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1346,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Rosales</t>
@@ -1359,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1390,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1403,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1416,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -1429,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1442,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1455,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1468,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1481,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1494,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1507,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1520,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1533,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1546,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -1559,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1590,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -1603,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1616,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1647,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1660,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -1673,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -1686,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Nuevo Ideal</t>
@@ -1699,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1712,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Rodeo</t>
@@ -1725,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -1738,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Tlahualilo</t>
@@ -1751,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1782,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -1795,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -1808,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -1821,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1834,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -1847,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1860,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -1873,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1886,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -1899,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Hueypoxtla</t>
@@ -1912,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -1925,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1938,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Jilotzingo</t>
@@ -1951,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -1964,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Joquicingo</t>
@@ -1977,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Juchitepec</t>
@@ -1990,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -2003,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Luvianos</t>
@@ -2016,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -2029,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -2042,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -2055,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -2068,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -2081,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2094,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -2107,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Tecámac</t>
@@ -2120,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -2133,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -2146,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -2159,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Tepetlixpa</t>
@@ -2172,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -2185,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2198,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2211,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -2224,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -2237,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Xonacatlán</t>
@@ -2250,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Zumpahuacán</t>
@@ -2263,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2294,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -2307,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2320,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -2333,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -2346,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -2359,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2372,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -2385,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>León</t>
@@ -2398,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -2411,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -2424,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -2437,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -2450,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2463,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -2476,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2489,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -2502,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -2515,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -2528,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Tarandacuao</t>
@@ -2541,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2554,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -2567,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2580,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2611,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -2624,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -2637,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -2650,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -2663,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Atlamajalcingo Del Monte</t>
@@ -2676,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -2689,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -2702,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -2715,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -2728,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -2741,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -2754,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -2767,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Coahuayutla De José María Izazaga</t>
@@ -2780,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -2793,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -2806,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -2819,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -2832,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -2845,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Cuautepec</t>
@@ -2858,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Cuetzala Del Progreso</t>
@@ -2871,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -2884,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -2897,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -2910,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -2923,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -2936,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2949,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -2962,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -2975,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -2988,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -3001,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -3014,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -3027,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -3040,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -3053,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -3066,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -3079,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -3092,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -3105,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -3118,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -3131,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Tlalixtaquilla De Maldonado</t>
@@ -3144,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -3157,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -3170,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Xochihuehuetlán</t>
@@ -3183,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Xochistlahuaca</t>
@@ -3196,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Zapotitlán Tablas</t>
@@ -3209,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -3222,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3253,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -3266,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Atlapexco</t>
@@ -3279,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Atotonilco De Tula</t>
@@ -3292,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Atotonilco El Grande</t>
@@ -3305,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Calnali</t>
@@ -3318,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -3331,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -3344,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -3357,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Huejutla De Reyes</t>
@@ -3370,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -3383,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -3396,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Jacala De Ledezma</t>
@@ -3409,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Lolotla</t>
@@ -3422,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -3435,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -3448,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Molango De Escamilla</t>
@@ -3461,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -3474,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -3487,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -3500,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>San Agustín Metzquititlán</t>
@@ -3513,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>San Agustín Tlaxiaca</t>
@@ -3526,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -3539,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerrero</t>
@@ -3552,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Tianguistengo</t>
@@ -3565,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -3578,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -3591,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Yahualica</t>
@@ -3604,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -3617,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -3630,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3661,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -3674,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -3687,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -3700,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -3713,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -3726,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -3739,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>San Cristóbal De La Barranca</t>
@@ -3752,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -3765,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -3778,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -3791,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Tototlán</t>
@@ -3804,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Tuxcueca</t>
@@ -3817,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -3830,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3861,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Arteaga</t>
@@ -3874,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -3887,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Chilchota</t>
@@ -3900,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -3913,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -3926,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -3939,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -3952,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -3965,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>José Sixto Verduzco</t>
@@ -3978,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -3991,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -4004,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Madero</t>
@@ -4017,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -4030,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -4043,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -4056,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -4069,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Tzintzuntzan</t>
@@ -4082,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -4095,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -4108,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -4121,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -4134,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -4147,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4178,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Axochiapan</t>
@@ -4191,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -4204,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -4217,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -4230,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Tetecala</t>
@@ -4243,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -4256,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -4269,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Zacualpan De Amilpas</t>
@@ -4282,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4313,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -4326,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -4339,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4370,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -4383,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4414,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Ayotzintepec</t>
@@ -4427,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Concepción Pápalo</t>
@@ -4440,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Cuyamecalco Villa De Zaragoza</t>
@@ -4453,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -4466,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Fresnillo De Trujano</t>
@@ -4479,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -4492,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -4505,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Huajuapan De León</t>
@@ -4518,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -4531,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -4544,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Mariscala De Juárez</t>
@@ -4557,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -4570,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -4583,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -4596,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -4609,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Pinotepa De Don Luis</t>
@@ -4622,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -4635,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -4648,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>San Agustín Chayuco</t>
@@ -4661,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>San Andrés Cabecera Nueva</t>
@@ -4674,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>San Andrés Teotilálpam</t>
@@ -4687,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>San Bartolo Soyaltepec</t>
@@ -4700,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -4713,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>San Felipe Usila</t>
@@ -4726,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>San Francisco Chapulapa</t>
@@ -4739,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>San Francisco Ixhuatán</t>
@@ -4752,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>San Francisco Ozolotepec</t>
@@ -4765,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>San Francisco Del Mar</t>
@@ -4778,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>San José Ayuquila</t>
@@ -4791,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>San José Del Progreso</t>
@@ -4804,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>San Juan Bautista Coixtlahuaca</t>
@@ -4817,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -4830,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -4843,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>San Juan Colorado</t>
@@ -4856,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>San Juan Cotzocón</t>
@@ -4869,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>San Juan Juquila Mixes</t>
@@ -4882,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -4895,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -4908,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>San Juan Ozolotepec</t>
@@ -4921,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>San Juan Sayultepec</t>
@@ -4934,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>San Juan Tamazola</t>
@@ -4947,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>San Juan Teposcolula</t>
@@ -4960,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>San Lorenzo</t>
@@ -4973,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>San Lucas Ojitlán</t>
@@ -4986,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>San Marcial Ozolotepec</t>
@@ -4999,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>San Miguel Amatitlán</t>
@@ -5012,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -5025,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>San Miguel Tlacamama</t>
@@ -5038,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>San Pedro Atoyac</t>
@@ -5051,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>San Pedro Huamelula</t>
@@ -5064,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec -Dto. 22 -</t>
@@ -5077,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -5090,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Santa Catarina Mechoacán</t>
@@ -5103,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Santa Cruz Xoxocotlán</t>
@@ -5116,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -5129,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Santa María Chilchotla</t>
@@ -5142,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Santa María Huatulco</t>
@@ -5155,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Santa María Ipalapa</t>
@@ -5168,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -5181,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Santa María Mixtequilla</t>
@@ -5194,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Santa María Ozolotepec</t>
@@ -5207,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Santa María Peñoles</t>
@@ -5220,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Santa María Tlalixtac</t>
@@ -5233,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -5246,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -5259,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Santiago Apóstol</t>
@@ -5272,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Santiago Ayuquililla</t>
@@ -5285,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Santiago Chazumba</t>
@@ -5298,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -5311,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -5324,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -5337,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -5350,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Santiago Xanica</t>
@@ -5363,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -5376,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -5389,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Tezoatlán De Segura Y Luna</t>
@@ -5402,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Villa De Tututepec</t>
@@ -5415,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -5428,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Villa De Zaachila</t>
@@ -5441,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5472,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Acatlán</t>
@@ -5485,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Aquixtla</t>
@@ -5498,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -5511,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Atzitzihuacán</t>
@@ -5524,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Ayotoxco De Guerrero</t>
@@ -5537,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -5550,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -5563,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -5576,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -5589,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -5602,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -5615,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -5628,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Chila De La Sal</t>
@@ -5641,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Chilchotla</t>
@@ -5654,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Chinantla</t>
@@ -5667,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -5680,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Coyomeapan</t>
@@ -5693,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Cuetzalan Del Progreso</t>
@@ -5706,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -5719,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Esperanza</t>
@@ -5732,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>General Felipe Ángeles</t>
@@ -5745,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -5758,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -5771,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -5784,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -5797,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -5810,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Hueytlalpan</t>
@@ -5823,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Ixcaquixtla</t>
@@ -5836,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -5849,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -5862,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -5875,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -5888,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Juan N. Méndez</t>
@@ -5901,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -5914,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Oriental</t>
@@ -5927,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Pahuatlán</t>
@@ -5940,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Petlalcingo</t>
@@ -5953,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -5966,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -5979,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -5992,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -6005,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>San Antonio Cañada</t>
@@ -6018,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -6031,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -6044,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>San Pedro Yeloixtlahuaca</t>
@@ -6057,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -6070,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Santa Inés Ahuatempan</t>
@@ -6083,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Santa Isabel Cholula</t>
@@ -6096,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -6109,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Tecomatlán</t>
@@ -6122,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -6135,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -6148,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Tenampulco</t>
@@ -6161,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -6174,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -6187,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -6200,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -6213,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -6226,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -6239,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -6252,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -6265,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Tlaltenango</t>
@@ -6278,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Tlanepantla</t>
@@ -6291,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -6304,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Tlapanalá</t>
@@ -6317,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -6330,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -6343,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -6356,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -6369,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Xochitlán Todos Santos</t>
@@ -6382,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -6395,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Zacapala</t>
@@ -6408,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -6421,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -6434,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Zapotitlán</t>
@@ -6447,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -6460,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6491,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Ezequiel Montes</t>
@@ -6504,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -6517,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -6530,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Tolimán</t>
@@ -6543,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6574,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Othón P. Blanco</t>
@@ -6587,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6618,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Cerritos</t>
@@ -6631,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Charcas</t>
@@ -6644,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -6657,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -6670,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -6683,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -6696,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -6709,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -6722,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -6735,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Soledad De Graciano Sánchez</t>
@@ -6748,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -6761,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Villa De Guadalupe</t>
@@ -6774,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -6787,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6818,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -6831,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -6844,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -6857,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6888,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -6901,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -6914,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -6927,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Jalpa De Méndez</t>
@@ -6940,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Jonuta</t>
@@ -6953,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -6966,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>Paraíso</t>
@@ -6979,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Tacotalpa</t>
@@ -6992,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7023,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>Altamira</t>
@@ -7036,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -7049,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -7062,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -7075,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -7088,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -7101,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -7114,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -7127,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>Xicoténcatl</t>
@@ -7140,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7171,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -7184,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -7197,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -7210,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -7223,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Papalotla De Xicohténcatl</t>
@@ -7236,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>San José Teacalco</t>
@@ -7249,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -7262,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -7275,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -7288,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Xaloztoc</t>
@@ -7301,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -7314,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7345,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -7358,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -7371,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Amatlán De Los Reyes</t>
@@ -7384,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -7397,6 +9902,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -7410,6 +9920,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -7423,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>Camerino Z. Mendoza</t>
@@ -7436,6 +9956,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>Carrillo Puerto</t>
@@ -7449,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -7462,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Chiconquiaco</t>
@@ -7475,6 +10010,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -7488,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>Cosautlán De Carvajal</t>
@@ -7501,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -7514,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>Cosoleacaque</t>
@@ -7527,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -7540,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -7553,6 +10118,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -7566,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -7579,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>Ixhuacán De Los Reyes</t>
@@ -7592,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>Ixhuatlán De Madero</t>
@@ -7605,6 +10190,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>Ixhuatlán Del Café</t>
@@ -7618,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>Jalacingo</t>
@@ -7631,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>Jamapa</t>
@@ -7644,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -7657,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -7670,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -7683,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -7696,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -7709,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -7722,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Moloacán</t>
@@ -7735,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -7748,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -7761,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -7774,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Río Blanco</t>
@@ -7787,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -7800,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -7813,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>Soledad Atzompa</t>
@@ -7826,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -7839,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>Teocelo</t>
@@ -7852,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Tepatlaxco</t>
@@ -7865,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -7878,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -7891,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -7904,6 +10604,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Tlachichilco</t>
@@ -7917,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -7930,6 +10640,11 @@
       </c>
     </row>
     <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -7943,6 +10658,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>Uxpanapa</t>
@@ -7956,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -7969,6 +10694,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -7982,6 +10712,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -7995,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Yecuatla</t>
@@ -8008,6 +10748,11 @@
       </c>
     </row>
     <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -8021,6 +10766,11 @@
       </c>
     </row>
     <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8052,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Valladolid</t>
@@ -8065,6 +10820,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8096,6 +10856,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Loreto</t>
@@ -8109,6 +10874,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Nochistlán De Mejía</t>
@@ -8122,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -8135,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -8148,6 +10928,11 @@
       </c>
     </row>
     <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
           <t>Villa González Ortega</t>
@@ -8161,6 +10946,11 @@
       </c>
     </row>
     <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -8174,6 +10964,11 @@
       </c>
     </row>
     <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
           <t>Total</t>
